--- a/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Summary_MM_MCBXFB_02_Inner_Iron_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Summary_MM_MCBXFB_02_Inner_Iron_600_20210510.xlsx
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.02533293688277297</v>
+        <v>-0.0253329368827738</v>
       </c>
       <c r="C4">
-        <v>-0.02533293688277297</v>
+        <v>-0.0253329368827738</v>
       </c>
       <c r="D4">
-        <v>-0.02533293688277297</v>
+        <v>-0.0253329368827738</v>
       </c>
       <c r="E4">
-        <v>-0.02533293688277297</v>
+        <v>-0.0253329368827738</v>
       </c>
       <c r="F4">
-        <v>-0.02533293688277297</v>
+        <v>-0.0253329368827738</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.01079326116329358</v>
+        <v>-0.01079326116329315</v>
       </c>
       <c r="C5">
-        <v>-0.01079326116329358</v>
+        <v>-0.01079326116329315</v>
       </c>
       <c r="D5">
-        <v>-0.01079326116329358</v>
+        <v>-0.01079326116329315</v>
       </c>
       <c r="E5">
-        <v>-0.01079326116329358</v>
+        <v>-0.01079326116329315</v>
       </c>
       <c r="F5">
-        <v>-0.01079326116329358</v>
+        <v>-0.01079326116329315</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -644,19 +644,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="C9">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="D9">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="E9">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
       <c r="F9">
-        <v>1.764545479821503</v>
+        <v>1.764545479821504</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="C11">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="D11">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="E11">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
       <c r="F11">
-        <v>0.9323300061914601</v>
+        <v>0.9323300061914606</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="C12">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="D12">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="E12">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
       <c r="F12">
-        <v>-8.05514969602711</v>
+        <v>-8.055149696027112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,19 +724,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="C13">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="D13">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="E13">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
       <c r="F13">
-        <v>0.08475154653305308</v>
+        <v>0.08475154653305331</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="C15">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="D15">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="E15">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
       <c r="F15">
-        <v>-0.08770483024230601</v>
+        <v>-0.08770483024230606</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -784,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="C16">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="D16">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="E16">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
       <c r="F16">
-        <v>0.9134296683075127</v>
+        <v>0.9134296683075125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="C17">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="D17">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="E17">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
       <c r="F17">
-        <v>-0.4856599602762319</v>
+        <v>-0.485659960276233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -824,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="C18">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="D18">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="E18">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
       <c r="F18">
-        <v>2.762116441135252</v>
+        <v>2.762116441135251</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="C19">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="D19">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="E19">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
       <c r="F19">
-        <v>0.4172678856937223</v>
+        <v>0.4172678856937152</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -864,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="C20">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="D20">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="E20">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
       <c r="F20">
-        <v>-1.807882793858985</v>
+        <v>-1.807882793858971</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="C21">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="D21">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="E21">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
       <c r="F21">
-        <v>-0.08951806505899766</v>
+        <v>-0.08951806505899333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="C22">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="D22">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="E22">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
       <c r="F22">
-        <v>0.2045609998250436</v>
+        <v>0.2045609998250454</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -929,19 +929,19 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>5.854691731421723E-19</v>
+        <v>5.963111948670274E-19</v>
       </c>
       <c r="C24">
-        <v>5.854691731421723E-19</v>
+        <v>5.963111948670274E-19</v>
       </c>
       <c r="D24">
-        <v>5.854691731421723E-19</v>
+        <v>5.963111948670274E-19</v>
       </c>
       <c r="E24">
-        <v>5.854691731421723E-19</v>
+        <v>5.963111948670274E-19</v>
       </c>
       <c r="F24">
-        <v>5.854691731421723E-19</v>
+        <v>5.963111948670274E-19</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -949,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>-1.381360225843718</v>
+        <v>-1.381360225843717</v>
       </c>
       <c r="C25">
-        <v>-1.381360225843718</v>
+        <v>-1.381360225843717</v>
       </c>
       <c r="D25">
-        <v>-1.381360225843718</v>
+        <v>-1.381360225843717</v>
       </c>
       <c r="E25">
-        <v>-1.381360225843718</v>
+        <v>-1.381360225843717</v>
       </c>
       <c r="F25">
-        <v>-1.381360225843718</v>
+        <v>-1.381360225843717</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -969,19 +969,19 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>0.8478723508218993</v>
+        <v>0.8478723508219</v>
       </c>
       <c r="C26">
-        <v>0.8478723508218993</v>
+        <v>0.8478723508219</v>
       </c>
       <c r="D26">
-        <v>0.8478723508218993</v>
+        <v>0.8478723508219</v>
       </c>
       <c r="E26">
-        <v>0.8478723508218993</v>
+        <v>0.8478723508219</v>
       </c>
       <c r="F26">
-        <v>0.8478723508218993</v>
+        <v>0.8478723508219</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -989,19 +989,19 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>-0.8791082573005025</v>
+        <v>-0.8791082573005022</v>
       </c>
       <c r="C27">
-        <v>-0.8791082573005025</v>
+        <v>-0.8791082573005022</v>
       </c>
       <c r="D27">
-        <v>-0.8791082573005025</v>
+        <v>-0.8791082573005022</v>
       </c>
       <c r="E27">
-        <v>-0.8791082573005025</v>
+        <v>-0.8791082573005022</v>
       </c>
       <c r="F27">
-        <v>-0.8791082573005025</v>
+        <v>-0.8791082573005022</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>0.4531871719938457</v>
+        <v>0.4531871719938463</v>
       </c>
       <c r="C28">
-        <v>0.4531871719938457</v>
+        <v>0.4531871719938463</v>
       </c>
       <c r="D28">
-        <v>0.4531871719938457</v>
+        <v>0.4531871719938463</v>
       </c>
       <c r="E28">
-        <v>0.4531871719938457</v>
+        <v>0.4531871719938463</v>
       </c>
       <c r="F28">
-        <v>0.4531871719938457</v>
+        <v>0.4531871719938463</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1029,19 +1029,19 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>-0.06710485228273527</v>
+        <v>-0.06710485228273488</v>
       </c>
       <c r="C29">
-        <v>-0.06710485228273527</v>
+        <v>-0.06710485228273488</v>
       </c>
       <c r="D29">
-        <v>-0.06710485228273527</v>
+        <v>-0.06710485228273488</v>
       </c>
       <c r="E29">
-        <v>-0.06710485228273527</v>
+        <v>-0.06710485228273488</v>
       </c>
       <c r="F29">
-        <v>-0.06710485228273527</v>
+        <v>-0.06710485228273488</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1049,19 +1049,19 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>-0.03498087173139445</v>
+        <v>-0.03498087173139337</v>
       </c>
       <c r="C30">
-        <v>-0.03498087173139445</v>
+        <v>-0.03498087173139337</v>
       </c>
       <c r="D30">
-        <v>-0.03498087173139445</v>
+        <v>-0.03498087173139337</v>
       </c>
       <c r="E30">
-        <v>-0.03498087173139445</v>
+        <v>-0.03498087173139337</v>
       </c>
       <c r="F30">
-        <v>-0.03498087173139445</v>
+        <v>-0.03498087173139337</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1069,19 +1069,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.1593539715790232</v>
+        <v>0.1593539715790244</v>
       </c>
       <c r="C31">
-        <v>0.1593539715790232</v>
+        <v>0.1593539715790244</v>
       </c>
       <c r="D31">
-        <v>0.1593539715790232</v>
+        <v>0.1593539715790244</v>
       </c>
       <c r="E31">
-        <v>0.1593539715790232</v>
+        <v>0.1593539715790244</v>
       </c>
       <c r="F31">
-        <v>0.1593539715790232</v>
+        <v>0.1593539715790244</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>-0.02519672403678226</v>
+        <v>-0.02519672403678101</v>
       </c>
       <c r="C32">
-        <v>-0.02519672403678226</v>
+        <v>-0.02519672403678101</v>
       </c>
       <c r="D32">
-        <v>-0.02519672403678226</v>
+        <v>-0.02519672403678101</v>
       </c>
       <c r="E32">
-        <v>-0.02519672403678226</v>
+        <v>-0.02519672403678101</v>
       </c>
       <c r="F32">
-        <v>-0.02519672403678226</v>
+        <v>-0.02519672403678101</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,19 +1109,19 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.2502393491844123</v>
+        <v>0.2502393491844135</v>
       </c>
       <c r="C33">
-        <v>0.2502393491844123</v>
+        <v>0.2502393491844135</v>
       </c>
       <c r="D33">
-        <v>0.2502393491844123</v>
+        <v>0.2502393491844135</v>
       </c>
       <c r="E33">
-        <v>0.2502393491844123</v>
+        <v>0.2502393491844135</v>
       </c>
       <c r="F33">
-        <v>0.2502393491844123</v>
+        <v>0.2502393491844135</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>-0.02834768219862716</v>
+        <v>-0.02834768219862524</v>
       </c>
       <c r="C34">
-        <v>-0.02834768219862716</v>
+        <v>-0.02834768219862524</v>
       </c>
       <c r="D34">
-        <v>-0.02834768219862716</v>
+        <v>-0.02834768219862524</v>
       </c>
       <c r="E34">
-        <v>-0.02834768219862716</v>
+        <v>-0.02834768219862524</v>
       </c>
       <c r="F34">
-        <v>-0.02834768219862716</v>
+        <v>-0.02834768219862524</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>-0.2434235864717439</v>
+        <v>-0.2434235864717401</v>
       </c>
       <c r="C35">
-        <v>-0.2434235864717439</v>
+        <v>-0.2434235864717401</v>
       </c>
       <c r="D35">
-        <v>-0.2434235864717439</v>
+        <v>-0.2434235864717401</v>
       </c>
       <c r="E35">
-        <v>-0.2434235864717439</v>
+        <v>-0.2434235864717401</v>
       </c>
       <c r="F35">
-        <v>-0.2434235864717439</v>
+        <v>-0.2434235864717401</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,19 +1169,19 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>-0.1938579390765153</v>
+        <v>-0.1938579390765239</v>
       </c>
       <c r="C36">
-        <v>-0.1938579390765153</v>
+        <v>-0.1938579390765239</v>
       </c>
       <c r="D36">
-        <v>-0.1938579390765153</v>
+        <v>-0.1938579390765239</v>
       </c>
       <c r="E36">
-        <v>-0.1938579390765153</v>
+        <v>-0.1938579390765239</v>
       </c>
       <c r="F36">
-        <v>-0.1938579390765153</v>
+        <v>-0.1938579390765239</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,19 +1189,19 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.01901783522612072</v>
+        <v>0.0190178352261199</v>
       </c>
       <c r="C37">
-        <v>0.01901783522612072</v>
+        <v>0.0190178352261199</v>
       </c>
       <c r="D37">
-        <v>0.01901783522612072</v>
+        <v>0.0190178352261199</v>
       </c>
       <c r="E37">
-        <v>0.01901783522612072</v>
+        <v>0.0190178352261199</v>
       </c>
       <c r="F37">
-        <v>0.01901783522612072</v>
+        <v>0.0190178352261199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,19 +1209,19 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>0.03764063677835036</v>
+        <v>0.03764063677835102</v>
       </c>
       <c r="C38">
-        <v>0.03764063677835036</v>
+        <v>0.03764063677835102</v>
       </c>
       <c r="D38">
-        <v>0.03764063677835036</v>
+        <v>0.03764063677835102</v>
       </c>
       <c r="E38">
-        <v>0.03764063677835036</v>
+        <v>0.03764063677835102</v>
       </c>
       <c r="F38">
-        <v>0.03764063677835036</v>
+        <v>0.03764063677835102</v>
       </c>
     </row>
     <row r="39" spans="1:6">
